--- a/data/trans_dic/P1418-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1418-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08052200742633336</v>
+        <v>0.07902650155450966</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02404391461522164</v>
+        <v>0.02399407957503306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01959117971495111</v>
+        <v>0.01986632724784649</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0629167742676067</v>
+        <v>0.06316016264984602</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1259606699998464</v>
+        <v>0.1286847167916191</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09830700131810202</v>
+        <v>0.09785417969053403</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07691206785605718</v>
+        <v>0.0771456117413451</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1114975465300114</v>
+        <v>0.112477181841905</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1133139220239443</v>
+        <v>0.1141266149555744</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0644509290168287</v>
+        <v>0.06620691264340373</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05340711474945404</v>
+        <v>0.05172937038588377</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09656398970478351</v>
+        <v>0.09682031638624959</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1274575590106104</v>
+        <v>0.1275454818420671</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.047991607058367</v>
+        <v>0.04840339587366355</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03996833361205927</v>
+        <v>0.0397251339098657</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1183362891793543</v>
+        <v>0.1146479388547747</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1710592849457251</v>
+        <v>0.1773915062224177</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1369062566342628</v>
+        <v>0.136222224213298</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1118667603615122</v>
+        <v>0.1137083277984508</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.15793527890957</v>
+        <v>0.1582117262739667</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1489439302506042</v>
+        <v>0.1497593041106974</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08787006071909124</v>
+        <v>0.08825561251131257</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07262407908506113</v>
+        <v>0.07265666074755336</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1309092122036043</v>
+        <v>0.1296340531567071</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02577358536621446</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03407298354376931</v>
+        <v>0.03407298354376932</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.09291541247107649</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04388755178325052</v>
+        <v>0.04388276213766526</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02508471597138793</v>
+        <v>0.02425193535575724</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01745580081169612</v>
+        <v>0.01672364075175179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02474326301303736</v>
+        <v>0.0252401297814557</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07770917351102559</v>
+        <v>0.07693376806159855</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08523742136807738</v>
+        <v>0.08710915630350202</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05427718881811333</v>
+        <v>0.05073904210267451</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0705270776408749</v>
+        <v>0.07097089765779285</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06327078591602454</v>
+        <v>0.06510229731356545</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06041191926103966</v>
+        <v>0.05924960236823806</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03832548346709275</v>
+        <v>0.03954590374450629</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05226137133488718</v>
+        <v>0.05224459697676381</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07186321468431085</v>
+        <v>0.07125058054832754</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05152889884292768</v>
+        <v>0.05004191134445602</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03883698681548802</v>
+        <v>0.03770368477494164</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04543137698482385</v>
+        <v>0.04674828382076995</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1119183411682728</v>
+        <v>0.1128970843111819</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1234558136591986</v>
+        <v>0.1243516016549219</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08607219011925155</v>
+        <v>0.08607572708516473</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09841201309629531</v>
+        <v>0.09820458644961237</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0865196936598543</v>
+        <v>0.08754381187170621</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08433190303281753</v>
+        <v>0.0831018250431874</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05898611553882336</v>
+        <v>0.06019563203746837</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06900310258583772</v>
+        <v>0.070374308947235</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.06539065830164206</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.07030219738992312</v>
+        <v>0.07030219738992309</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04904700353833735</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01645992658929896</v>
+        <v>0.01649159368584004</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02135372145331686</v>
+        <v>0.02074321450962244</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01318288677926414</v>
+        <v>0.01305386253881288</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02827168644744244</v>
+        <v>0.02764752236511363</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06023814326194322</v>
+        <v>0.05970147650012143</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06251693387062116</v>
+        <v>0.0623432965264711</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04866903244038573</v>
+        <v>0.04812678761144244</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05833150026257634</v>
+        <v>0.05858448993255966</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03984545291340019</v>
+        <v>0.04050675934161396</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04431737907181469</v>
+        <v>0.04503420238959545</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03304857364056085</v>
+        <v>0.0323668508811631</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04578669148158138</v>
+        <v>0.04560999525986959</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0361183162454875</v>
+        <v>0.03670914553153844</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04613956425551083</v>
+        <v>0.04650481356896577</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03275480723925855</v>
+        <v>0.03174353684207761</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04984517070655518</v>
+        <v>0.04922473640410956</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09480859826538705</v>
+        <v>0.09406189325453132</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1001361181399493</v>
+        <v>0.09937903870509907</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08616305889531643</v>
+        <v>0.08981101252452763</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08343840749635265</v>
+        <v>0.0831198074512076</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05832151505380039</v>
+        <v>0.06004683708491456</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0674660549285158</v>
+        <v>0.06792465148603032</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05320618035018655</v>
+        <v>0.05350773766705327</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06270176040161961</v>
+        <v>0.06283283001842713</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.01483908468122767</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0357050234086858</v>
+        <v>0.03570502340868579</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06846692442481016</v>
@@ -1105,7 +1105,7 @@
         <v>0.02327258170825255</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05795545001225252</v>
+        <v>0.05795545001225251</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02989168487515302</v>
+        <v>0.03074976935906516</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008082373528181929</v>
+        <v>0.008043785715286062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005150060107944564</v>
+        <v>0.005864162520192196</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02643468853390683</v>
+        <v>0.02623950829228076</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04372941817941278</v>
+        <v>0.04292128205569379</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04897189056732781</v>
+        <v>0.04954678315981133</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01771102167147583</v>
+        <v>0.01813014989975354</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06742622507471265</v>
+        <v>0.06833511816254693</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04155725008745331</v>
+        <v>0.04324923296355574</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03182285547437169</v>
+        <v>0.03126794101466191</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01442494364877399</v>
+        <v>0.01359122138178116</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04956687123178749</v>
+        <v>0.04998991676305947</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07144118844267106</v>
+        <v>0.07048422734490051</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03146959234251944</v>
+        <v>0.03177107677031041</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02939601297433717</v>
+        <v>0.0280045446888475</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04898458300791959</v>
+        <v>0.04737971096770343</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1022698407767957</v>
+        <v>0.1006132035195353</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1038743826003906</v>
+        <v>0.1060318896816776</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05801377351945937</v>
+        <v>0.05498209928385185</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09823157690593012</v>
+        <v>0.09806424285811462</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07457905605111725</v>
+        <v>0.07712292449849784</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06082389232851313</v>
+        <v>0.05958428596813248</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03561159375926892</v>
+        <v>0.03584918091715939</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06709362451551612</v>
+        <v>0.06765876517165843</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.045881938114275</v>
+        <v>0.04578819065737522</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02594462529211354</v>
+        <v>0.02557119733109873</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01915520250357126</v>
+        <v>0.01887577160754682</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03613985960018381</v>
+        <v>0.03715683747662222</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08989671635254538</v>
+        <v>0.09080914331880684</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08801820172368365</v>
+        <v>0.08777782734321764</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06249098462053794</v>
+        <v>0.06253245803119649</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08036565533383053</v>
+        <v>0.07990656977823073</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07047190830154888</v>
+        <v>0.07049154423941359</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05860786758309519</v>
+        <v>0.05925225602174035</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04306363132757383</v>
+        <v>0.04270960657356514</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0612338142526654</v>
+        <v>0.061251926085692</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06155536007505696</v>
+        <v>0.06137273637377958</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03850913546448811</v>
+        <v>0.03767939211988122</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02987737199884371</v>
+        <v>0.02926942492121446</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05056260290149434</v>
+        <v>0.05009281028623293</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.110589154790585</v>
+        <v>0.1114633618476159</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1082156501066113</v>
+        <v>0.1082802538915822</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08112568683562028</v>
+        <v>0.0811528326959718</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09507399814086648</v>
+        <v>0.09499096078854027</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08348643123460299</v>
+        <v>0.08400726513828115</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07134292732199873</v>
+        <v>0.07182194721470657</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05338956758280447</v>
+        <v>0.05432934673707602</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07140114432001428</v>
+        <v>0.07172760808822756</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>47036</v>
+        <v>46163</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>25100</v>
+        <v>25048</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22099</v>
+        <v>22409</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>31236</v>
+        <v>31357</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>116178</v>
+        <v>118690</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>109971</v>
+        <v>109465</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>96875</v>
+        <v>97170</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>69349</v>
+        <v>69958</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>170704</v>
+        <v>171929</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>139381</v>
+        <v>143178</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>127513</v>
+        <v>123507</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>108002</v>
+        <v>108288</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>74453</v>
+        <v>74505</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>50100</v>
+        <v>50530</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45084</v>
+        <v>44810</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>58751</v>
+        <v>56920</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>157774</v>
+        <v>163614</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>153151</v>
+        <v>152385</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>140903</v>
+        <v>143223</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>98232</v>
+        <v>98404</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>224380</v>
+        <v>225608</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>190027</v>
+        <v>190861</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>173394</v>
+        <v>173472</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>146415</v>
+        <v>144989</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>47306</v>
+        <v>47301</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24510</v>
+        <v>23696</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15864</v>
+        <v>15199</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23729</v>
+        <v>24205</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>82180</v>
+        <v>81360</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>93107</v>
+        <v>95152</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>54629</v>
+        <v>51068</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>78364</v>
+        <v>78857</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>135110</v>
+        <v>139022</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>125016</v>
+        <v>122611</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>73405</v>
+        <v>75742</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>108188</v>
+        <v>108153</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>77461</v>
+        <v>76801</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50347</v>
+        <v>48895</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35296</v>
+        <v>34266</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>43569</v>
+        <v>44832</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>118358</v>
+        <v>119393</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>134854</v>
+        <v>135833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>86630</v>
+        <v>86633</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>109348</v>
+        <v>109117</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>184757</v>
+        <v>186944</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>174516</v>
+        <v>171971</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>112976</v>
+        <v>115293</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>142845</v>
+        <v>145684</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18461</v>
+        <v>18497</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18900</v>
+        <v>18360</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10860</v>
+        <v>10753</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29586</v>
+        <v>28933</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>59873</v>
+        <v>59340</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>54687</v>
+        <v>54535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37527</v>
+        <v>37109</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>61073</v>
+        <v>61337</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>84294</v>
+        <v>85693</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>77993</v>
+        <v>79254</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>52706</v>
+        <v>51619</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>95853</v>
+        <v>95483</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>40510</v>
+        <v>41173</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40839</v>
+        <v>41162</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26982</v>
+        <v>26149</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52162</v>
+        <v>51513</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>94234</v>
+        <v>93492</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>87594</v>
+        <v>86932</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>66437</v>
+        <v>69250</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>87359</v>
+        <v>87026</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>123381</v>
+        <v>127031</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>118731</v>
+        <v>119538</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>84854</v>
+        <v>85335</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>131264</v>
+        <v>131539</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13368</v>
+        <v>13751</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4066</v>
+        <v>4046</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2610</v>
+        <v>2971</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25769</v>
+        <v>25579</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>14919</v>
+        <v>14643</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>22171</v>
+        <v>22432</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8673</v>
+        <v>8878</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>61171</v>
+        <v>61995</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>32762</v>
+        <v>34096</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>30415</v>
+        <v>29885</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>14373</v>
+        <v>13542</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>93288</v>
+        <v>94084</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31948</v>
+        <v>31521</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15830</v>
+        <v>15982</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14895</v>
+        <v>14190</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>47752</v>
+        <v>46187</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>34890</v>
+        <v>34325</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>47028</v>
+        <v>48004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28409</v>
+        <v>26925</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>89118</v>
+        <v>88966</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>58795</v>
+        <v>60800</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>58133</v>
+        <v>56948</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>35483</v>
+        <v>35720</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>126274</v>
+        <v>127338</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>148237</v>
+        <v>147934</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>88449</v>
+        <v>87176</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>64501</v>
+        <v>63560</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>125651</v>
+        <v>129186</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>298005</v>
+        <v>301029</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>311449</v>
+        <v>310599</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>220393</v>
+        <v>220539</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>296333</v>
+        <v>294640</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>461295</v>
+        <v>461423</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>407185</v>
+        <v>411662</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>296884</v>
+        <v>294443</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>438685</v>
+        <v>438815</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>198875</v>
+        <v>198285</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>131283</v>
+        <v>128455</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>100606</v>
+        <v>98558</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>175796</v>
+        <v>174162</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>366600</v>
+        <v>369498</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>382917</v>
+        <v>383146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>286113</v>
+        <v>286209</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>350567</v>
+        <v>350261</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>546485</v>
+        <v>549895</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>495663</v>
+        <v>498991</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>368072</v>
+        <v>374551</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>511525</v>
+        <v>513864</v>
       </c>
     </row>
     <row r="24">
